--- a/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/BRCategoriaExame-1.0-observation-category.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/BRCategoriaExame-1.0-observation-category.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D9AFC1-7A35-124D-813C-1D95600FFEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9153772A-DF39-2747-9AAB-CC69D3EA4E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="760" windowWidth="29140" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,18 +131,12 @@
     <t>1..1</t>
   </si>
   <si>
-    <t>BRCategoriaExame-1.0</t>
-  </si>
-  <si>
     <t>id source</t>
   </si>
   <si>
     <t>Nome (Source)</t>
   </si>
   <si>
-    <t>ObservationCategory</t>
-  </si>
-  <si>
     <t>Ações coletivas/individuais em saúde</t>
   </si>
   <si>
@@ -348,6 +342,12 @@
   </si>
   <si>
     <t>Therapy</t>
+  </si>
+  <si>
+    <t>BRSubGrupoTabelaSUS</t>
+  </si>
+  <si>
+    <t>ObservationCategoryCode</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Opções"/>
@@ -784,7 +784,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -801,21 +801,21 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -835,13 +835,13 @@
         <v>101</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -852,13 +852,13 @@
         <v>102</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -869,13 +869,13 @@
         <v>201</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -886,13 +886,13 @@
         <v>202</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -903,13 +903,13 @@
         <v>203</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -920,13 +920,13 @@
         <v>204</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -937,13 +937,13 @@
         <v>205</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -954,13 +954,13 @@
         <v>206</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -971,13 +971,13 @@
         <v>207</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -988,13 +988,13 @@
         <v>208</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -1005,13 +1005,13 @@
         <v>209</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -1022,13 +1022,13 @@
         <v>210</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -1039,13 +1039,13 @@
         <v>211</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -1056,13 +1056,13 @@
         <v>212</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -1073,13 +1073,13 @@
         <v>213</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -1090,13 +1090,13 @@
         <v>214</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -1107,13 +1107,13 @@
         <v>301</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
@@ -1124,13 +1124,13 @@
         <v>302</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -1141,13 +1141,13 @@
         <v>303</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -1158,13 +1158,13 @@
         <v>304</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -1175,13 +1175,13 @@
         <v>305</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -1192,13 +1192,13 @@
         <v>306</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
@@ -1209,13 +1209,13 @@
         <v>307</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -1226,13 +1226,13 @@
         <v>308</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -1243,13 +1243,13 @@
         <v>309</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -1260,13 +1260,13 @@
         <v>310</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -1277,13 +1277,13 @@
         <v>401</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
@@ -1294,13 +1294,13 @@
         <v>402</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -1311,13 +1311,13 @@
         <v>403</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
@@ -1328,13 +1328,13 @@
         <v>404</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -1345,13 +1345,13 @@
         <v>405</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
@@ -1362,13 +1362,13 @@
         <v>406</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -1379,13 +1379,13 @@
         <v>407</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
         <v>5</v>
@@ -1396,13 +1396,13 @@
         <v>408</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
@@ -1413,13 +1413,13 @@
         <v>409</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -1430,13 +1430,13 @@
         <v>410</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -1447,13 +1447,13 @@
         <v>411</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
@@ -1464,13 +1464,13 @@
         <v>412</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -1481,13 +1481,13 @@
         <v>413</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
@@ -1498,13 +1498,13 @@
         <v>414</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1515,13 +1515,13 @@
         <v>415</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
@@ -1532,13 +1532,13 @@
         <v>416</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
@@ -1549,13 +1549,13 @@
         <v>417</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
         <v>5</v>
@@ -1566,13 +1566,13 @@
         <v>418</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
@@ -1583,13 +1583,13 @@
         <v>501</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1600,13 +1600,13 @@
         <v>502</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
@@ -1617,13 +1617,13 @@
         <v>503</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
@@ -1634,13 +1634,13 @@
         <v>504</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
@@ -1651,13 +1651,13 @@
         <v>505</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E51" t="s">
         <v>5</v>
@@ -1668,13 +1668,13 @@
         <v>506</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -1685,13 +1685,13 @@
         <v>601</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E53" t="s">
         <v>5</v>
@@ -1702,13 +1702,13 @@
         <v>602</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
@@ -1719,13 +1719,13 @@
         <v>603</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
@@ -1736,13 +1736,13 @@
         <v>604</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -1753,13 +1753,13 @@
         <v>701</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
@@ -1770,13 +1770,13 @@
         <v>702</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
@@ -1787,13 +1787,13 @@
         <v>801</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
@@ -1804,13 +1804,13 @@
         <v>802</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
@@ -1821,13 +1821,13 @@
         <v>803</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E61" t="s">
         <v>5</v>

--- a/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/BRCategoriaExame-1.0-observation-category.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/BRCategoriaExame-1.0-observation-category.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9153772A-DF39-2747-9AAB-CC69D3EA4E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17FF9A3-9BBC-3E47-BE43-C714A327F2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="760" windowWidth="29140" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
     <t>BRSubGrupoTabelaSUS</t>
   </si>
   <si>
-    <t>ObservationCategoryCode</t>
+    <t>ObservationCategoryCodes</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -486,6 +486,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -784,20 +792,22 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="15"/>
     <col min="2" max="2" width="29.83203125" style="11" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" customWidth="1"/>
     <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -811,7 +821,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -831,7 +841,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="14">
         <v>101</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -848,7 +858,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="14">
         <v>102</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -865,7 +875,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="14">
         <v>201</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -882,7 +892,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="14">
         <v>202</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -899,7 +909,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="14">
         <v>203</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -916,7 +926,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="14">
         <v>204</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -933,7 +943,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="14">
         <v>205</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -950,7 +960,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="14">
         <v>206</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -967,7 +977,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="14">
         <v>207</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -984,7 +994,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="14">
         <v>208</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1001,7 +1011,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="14">
         <v>209</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1018,7 +1028,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="14">
         <v>210</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1035,7 +1045,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="A15" s="14">
         <v>211</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1052,7 +1062,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="14">
         <v>212</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1069,7 +1079,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="14">
         <v>213</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -1086,7 +1096,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="14">
         <v>214</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1103,7 +1113,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="14">
         <v>301</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -1120,7 +1130,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="14">
         <v>302</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -1137,7 +1147,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="14">
         <v>303</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -1154,7 +1164,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A22" s="14">
         <v>304</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -1171,7 +1181,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+      <c r="A23" s="14">
         <v>305</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -1188,7 +1198,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="A24" s="14">
         <v>306</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1205,7 +1215,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+      <c r="A25" s="14">
         <v>307</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -1222,7 +1232,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="43" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+      <c r="A26" s="14">
         <v>308</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -1239,7 +1249,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+      <c r="A27" s="14">
         <v>309</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -1256,7 +1266,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+      <c r="A28" s="14">
         <v>310</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -1273,7 +1283,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
+      <c r="A29" s="14">
         <v>401</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -1290,7 +1300,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+      <c r="A30" s="14">
         <v>402</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -1307,7 +1317,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+      <c r="A31" s="14">
         <v>403</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -1324,7 +1334,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+      <c r="A32" s="14">
         <v>404</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1341,7 +1351,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
+      <c r="A33" s="14">
         <v>405</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -1358,7 +1368,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+      <c r="A34" s="14">
         <v>406</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -1375,7 +1385,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+      <c r="A35" s="14">
         <v>407</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -1392,7 +1402,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+      <c r="A36" s="14">
         <v>408</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -1409,7 +1419,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
+      <c r="A37" s="14">
         <v>409</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -1426,7 +1436,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+      <c r="A38" s="14">
         <v>410</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -1443,7 +1453,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
+      <c r="A39" s="14">
         <v>411</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -1460,7 +1470,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
+      <c r="A40" s="14">
         <v>412</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -1477,7 +1487,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+      <c r="A41" s="14">
         <v>413</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -1494,7 +1504,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+      <c r="A42" s="14">
         <v>414</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -1511,7 +1521,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
+      <c r="A43" s="14">
         <v>415</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -1528,7 +1538,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
+      <c r="A44" s="14">
         <v>416</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -1545,7 +1555,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+      <c r="A45" s="14">
         <v>417</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -1562,7 +1572,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
+      <c r="A46" s="14">
         <v>418</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -1579,7 +1589,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="43" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
+      <c r="A47" s="14">
         <v>501</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -1596,7 +1606,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
+      <c r="A48" s="14">
         <v>502</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -1613,7 +1623,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
+      <c r="A49" s="14">
         <v>503</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -1630,7 +1640,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
+      <c r="A50" s="14">
         <v>504</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -1647,7 +1657,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
+      <c r="A51" s="14">
         <v>505</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -1664,7 +1674,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
+      <c r="A52" s="14">
         <v>506</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -1681,7 +1691,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
+      <c r="A53" s="14">
         <v>601</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -1698,7 +1708,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
+      <c r="A54" s="14">
         <v>602</v>
       </c>
       <c r="B54" s="10" t="s">
@@ -1715,7 +1725,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
+      <c r="A55" s="14">
         <v>603</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -1732,7 +1742,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
+      <c r="A56" s="14">
         <v>604</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -1749,7 +1759,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="43" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
+      <c r="A57" s="14">
         <v>701</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -1766,7 +1776,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="43" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
+      <c r="A58" s="14">
         <v>702</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -1783,7 +1793,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
+      <c r="A59" s="14">
         <v>801</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -1800,7 +1810,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
+      <c r="A60" s="14">
         <v>802</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -1817,7 +1827,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
+      <c r="A61" s="14">
         <v>803</v>
       </c>
       <c r="B61" s="10" t="s">
